--- a/7rMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7rMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,18 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0D32F2FE-E298-4ECB-B055-5190600EFD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{26087727-FF79-4DC9-AC5D-B15372E1CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14840" windowHeight="11060" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ManageOrderPage" sheetId="2" r:id="rId2"/>
     <sheet name="ManageOfferCodePage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageLocationPage" sheetId="4" r:id="rId4"/>
+    <sheet name="AdminUserPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageSliderPage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N13"/>
+  <oleSize ref="A1:J7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -66,16 +68,55 @@
   </si>
   <si>
     <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>usertype</t>
+  </si>
+  <si>
+    <t>Divya@123</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>alertText</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+User Created Successfully</t>
+  </si>
+  <si>
+    <t>Divya4</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>www.javatpoint.com/testng-groups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,10 +139,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -109,8 +151,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BB6941-59CA-457B-81A5-E5F8133E7827}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -544,4 +591,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3445B033-F3EB-4995-8184-D9213ADF674C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0990875E-3272-4084-8E6C-6E38A6291D3D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902D283-DAF1-4E73-BF58-66DF121406E4}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{458ECA0E-14D7-4C90-9F7F-568C9B553DD6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7rMartSuperMarketProject/src/test/resources/TestData.xlsx
+++ b/7rMartSuperMarketProject/src/test/resources/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{26087727-FF79-4DC9-AC5D-B15372E1CA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\git\seleniumProject\7rMartSuperMarketProject\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E59DED-59B4-434F-9593-A7261001BB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19460" windowHeight="11060" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="ManageSliderPage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -92,13 +96,13 @@
 User Created Successfully</t>
   </si>
   <si>
-    <t>Divya4</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
     <t>www.javatpoint.com/testng-groups</t>
+  </si>
+  <si>
+    <t>Divya6</t>
   </si>
 </sst>
 </file>
@@ -143,7 +147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -155,6 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -595,9 +600,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3445B033-F3EB-4995-8184-D9213ADF674C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -606,9 +611,10 @@
     <col min="1" max="1" width="14.453125" customWidth="1"/>
     <col min="2" max="2" width="13.7265625" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -622,9 +628,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>17</v>
@@ -635,12 +641,14 @@
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E2" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0990875E-3272-4084-8E6C-6E38A6291D3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -648,7 +656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902D283-DAF1-4E73-BF58-66DF121406E4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -659,12 +667,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
